--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85FEC64-7B5A-47A0-985D-9BB31A64B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,11 +179,17 @@
   <si>
     <t>SL(1-0-0)</t>
   </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/24,25/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -560,8 +565,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -596,12 +607,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +626,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -696,7 +700,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -764,7 +767,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1006,7 +1008,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1054,7 +1055,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1098,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1162,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1222,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1288,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1351,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1449,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1508,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1573,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1616,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1691,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1877,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1943,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2001,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2067,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2123,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2198,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2241,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2307,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2363,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2461,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2524,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,25 +2590,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2619,13 +2620,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2634,14 +2635,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2945,7 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2955,7 +2956,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2963,97 +2964,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="61">
         <v>44743</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3061,7 +3062,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3074,24 +3075,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3135,7 +3136,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3145,13 +3146,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="20"/>
@@ -3172,7 +3173,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3192,7 +3193,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3212,7 +3213,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3232,7 +3233,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3252,7 +3253,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3292,8 +3293,8 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="15"/>
@@ -3310,7 +3311,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3336,65 +3337,71 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="39"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -3410,9 +3417,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -3428,9 +3435,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3446,9 +3453,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3464,9 +3471,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3482,9 +3489,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3500,9 +3507,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3518,9 +3525,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3536,9 +3543,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3554,9 +3561,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3572,9 +3579,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3590,9 +3597,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3608,9 +3615,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3626,9 +3633,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3644,9 +3651,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3662,9 +3669,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3680,9 +3687,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3698,9 +3705,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3716,9 +3723,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3734,9 +3741,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3752,9 +3759,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3770,9 +3777,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3788,9 +3795,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3806,9 +3813,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3824,9 +3831,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3842,9 +3849,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3860,9 +3867,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3878,9 +3885,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3896,9 +3903,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3914,9 +3921,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3932,9 +3939,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3950,9 +3957,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3968,9 +3975,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3986,9 +3993,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4004,9 +4011,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4022,9 +4029,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4040,9 +4047,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4058,9 +4065,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4076,9 +4083,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4094,9 +4101,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4112,9 +4119,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4130,9 +4137,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4148,9 +4155,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4166,9 +4173,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4184,9 +4191,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4202,9 +4209,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4220,9 +4227,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4238,9 +4245,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4256,9 +4263,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4274,9 +4281,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4292,9 +4299,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4310,9 +4317,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4328,9 +4335,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4346,9 +4353,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4364,9 +4371,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4382,9 +4389,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4400,9 +4407,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4418,9 +4425,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4436,9 +4443,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4454,9 +4461,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4472,9 +4479,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4490,9 +4497,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4508,9 +4515,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4526,9 +4533,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4544,9 +4551,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4562,9 +4569,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4580,9 +4587,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4598,9 +4605,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4616,9 +4623,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4634,9 +4641,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4652,9 +4659,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4670,9 +4677,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4688,9 +4695,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4706,9 +4713,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4724,9 +4731,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4742,9 +4749,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4760,9 +4767,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4778,9 +4785,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4796,9 +4803,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4814,9 +4821,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4832,9 +4839,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4850,9 +4857,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4868,9 +4875,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4886,9 +4893,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4904,9 +4911,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4922,9 +4929,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4940,9 +4947,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4958,9 +4965,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4976,9 +4983,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4994,9 +5001,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5012,9 +5019,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5030,9 +5037,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5048,9 +5055,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5066,9 +5073,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5084,9 +5091,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5102,9 +5109,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5120,9 +5127,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5138,9 +5145,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5156,8 +5163,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
+        <v>48000</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5172,7 +5181,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5188,7 +5197,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5204,7 +5213,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5220,7 +5229,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5236,7 +5245,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5252,7 +5261,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5268,7 +5277,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5284,7 +5293,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5300,7 +5309,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5316,7 +5325,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5332,37 +5341,53 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5379,10 +5404,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5405,7 +5430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5413,34 +5438,34 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5469,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5489,17 +5514,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5513,14 +5538,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5547,7 +5572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5573,7 +5598,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5599,7 +5624,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5651,7 +5676,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5677,7 +5702,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5703,7 +5728,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5729,7 +5754,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5749,7 +5774,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5769,7 +5794,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5789,7 +5814,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5810,7 +5835,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5831,7 +5856,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5852,7 +5877,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5873,7 +5898,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5894,7 +5919,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5915,7 +5940,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5936,7 +5961,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5957,7 +5982,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5978,7 +6003,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5999,7 +6024,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6020,7 +6045,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6041,7 +6066,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6062,7 +6087,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6083,7 +6108,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6104,7 +6129,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6125,7 +6150,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6146,7 +6171,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6167,7 +6192,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6188,7 +6213,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6209,7 +6234,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6218,7 +6243,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6227,7 +6252,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6236,7 +6261,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6245,7 +6270,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6254,7 +6279,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6263,7 +6288,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6272,7 +6297,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6281,7 +6306,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6290,7 +6315,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6299,7 +6324,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6308,7 +6333,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6317,7 +6342,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6326,7 +6351,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6335,7 +6360,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6344,7 +6369,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6353,7 +6378,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6362,7 +6387,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6371,7 +6396,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6380,7 +6405,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6389,7 +6414,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6398,7 +6423,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6407,7 +6432,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6416,7 +6441,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6425,7 +6450,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6434,7 +6459,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6443,7 +6468,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6452,7 +6477,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6461,7 +6486,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6470,7 +6495,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0EAF25-4B2D-4DC4-97F9-344FA5CE1617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1055,7 +1056,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,7 +1099,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1163,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1223,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1289,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1352,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1450,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1509,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1574,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1617,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1692,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1878,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1944,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2002,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2068,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2124,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2199,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2242,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2308,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2364,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2462,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2525,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,25 +2591,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2620,13 +2621,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2635,14 +2636,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2946,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2956,7 +2957,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2964,34 +2965,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3013,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3032,7 +3033,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3062,7 +3063,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3075,7 +3076,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3092,7 +3093,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3146,12 +3147,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
@@ -3173,7 +3174,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3193,7 +3194,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3213,7 +3214,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3233,7 +3234,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3253,7 +3254,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3273,7 +3274,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3293,7 +3294,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>46</v>
       </c>
@@ -3311,7 +3312,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -3359,7 +3360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44958</v>
       </c>
@@ -3379,11 +3380,13 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44986</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
@@ -3394,12 +3397,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="48">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>45017</v>
       </c>
@@ -3417,7 +3424,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>45047</v>
       </c>
@@ -3435,7 +3442,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>45078</v>
       </c>
@@ -3453,7 +3460,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45108</v>
       </c>
@@ -3471,7 +3478,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>45139</v>
       </c>
@@ -3489,7 +3496,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>45170</v>
       </c>
@@ -3507,7 +3514,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>45200</v>
       </c>
@@ -3525,7 +3532,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45231</v>
       </c>
@@ -3543,7 +3550,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>45261</v>
       </c>
@@ -3561,7 +3568,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>45292</v>
       </c>
@@ -3579,7 +3586,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45323</v>
       </c>
@@ -3597,7 +3604,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>45352</v>
       </c>
@@ -3615,7 +3622,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>45383</v>
       </c>
@@ -3633,7 +3640,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>45413</v>
       </c>
@@ -3651,7 +3658,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45444</v>
       </c>
@@ -3669,7 +3676,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>45474</v>
       </c>
@@ -3687,7 +3694,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>45505</v>
       </c>
@@ -3705,7 +3712,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>45536</v>
       </c>
@@ -3723,7 +3730,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>45566</v>
       </c>
@@ -3741,7 +3748,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>45597</v>
       </c>
@@ -3759,7 +3766,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45627</v>
       </c>
@@ -3777,7 +3784,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>45658</v>
       </c>
@@ -3795,7 +3802,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>45689</v>
       </c>
@@ -3813,7 +3820,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>45717</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>45748</v>
       </c>
@@ -3849,7 +3856,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45778</v>
       </c>
@@ -3867,7 +3874,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45809</v>
       </c>
@@ -3885,7 +3892,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45839</v>
       </c>
@@ -3903,7 +3910,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45870</v>
       </c>
@@ -3921,7 +3928,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45901</v>
       </c>
@@ -3939,7 +3946,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45931</v>
       </c>
@@ -3957,7 +3964,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45962</v>
       </c>
@@ -3975,7 +3982,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45992</v>
       </c>
@@ -3993,7 +4000,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>46023</v>
       </c>
@@ -4011,7 +4018,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>46054</v>
       </c>
@@ -4029,7 +4036,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>46082</v>
       </c>
@@ -4047,7 +4054,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>46113</v>
       </c>
@@ -4065,7 +4072,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>46143</v>
       </c>
@@ -4083,7 +4090,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>46174</v>
       </c>
@@ -4101,7 +4108,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>46204</v>
       </c>
@@ -4119,7 +4126,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>46235</v>
       </c>
@@ -4137,7 +4144,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>46266</v>
       </c>
@@ -4155,7 +4162,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>46296</v>
       </c>
@@ -4173,7 +4180,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>46327</v>
       </c>
@@ -4191,7 +4198,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>46357</v>
       </c>
@@ -4209,7 +4216,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>46388</v>
       </c>
@@ -4227,7 +4234,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>46419</v>
       </c>
@@ -4245,7 +4252,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>46447</v>
       </c>
@@ -4263,7 +4270,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>46478</v>
       </c>
@@ -4281,7 +4288,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>46508</v>
       </c>
@@ -4299,7 +4306,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>46539</v>
       </c>
@@ -4317,7 +4324,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>46569</v>
       </c>
@@ -4335,7 +4342,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>46600</v>
       </c>
@@ -4353,7 +4360,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>46631</v>
       </c>
@@ -4371,7 +4378,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>46661</v>
       </c>
@@ -4389,7 +4396,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>46692</v>
       </c>
@@ -4407,7 +4414,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>46722</v>
       </c>
@@ -4425,7 +4432,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>46753</v>
       </c>
@@ -4443,7 +4450,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>46784</v>
       </c>
@@ -4461,7 +4468,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>46813</v>
       </c>
@@ -4479,7 +4486,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>46844</v>
       </c>
@@ -4497,7 +4504,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>46874</v>
       </c>
@@ -4515,7 +4522,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>46905</v>
       </c>
@@ -4533,7 +4540,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>46935</v>
       </c>
@@ -4551,7 +4558,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>46966</v>
       </c>
@@ -4569,7 +4576,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>46997</v>
       </c>
@@ -4587,7 +4594,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>47027</v>
       </c>
@@ -4605,7 +4612,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>47058</v>
       </c>
@@ -4623,7 +4630,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>47088</v>
       </c>
@@ -4641,7 +4648,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>47119</v>
       </c>
@@ -4659,7 +4666,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>47150</v>
       </c>
@@ -4677,7 +4684,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>47178</v>
       </c>
@@ -4695,7 +4702,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>47209</v>
       </c>
@@ -4713,7 +4720,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>47239</v>
       </c>
@@ -4731,7 +4738,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>47270</v>
       </c>
@@ -4749,7 +4756,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>47300</v>
       </c>
@@ -4767,7 +4774,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>47331</v>
       </c>
@@ -4785,7 +4792,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>47362</v>
       </c>
@@ -4803,7 +4810,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>47392</v>
       </c>
@@ -4821,7 +4828,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>47423</v>
       </c>
@@ -4839,7 +4846,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>47453</v>
       </c>
@@ -4857,7 +4864,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>47484</v>
       </c>
@@ -4875,7 +4882,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>47515</v>
       </c>
@@ -4893,7 +4900,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>47543</v>
       </c>
@@ -4911,7 +4918,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>47574</v>
       </c>
@@ -4929,7 +4936,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>47604</v>
       </c>
@@ -4947,7 +4954,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>47635</v>
       </c>
@@ -4965,7 +4972,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>47665</v>
       </c>
@@ -4983,7 +4990,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>47696</v>
       </c>
@@ -5001,7 +5008,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>47727</v>
       </c>
@@ -5019,7 +5026,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>47757</v>
       </c>
@@ -5037,7 +5044,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>47788</v>
       </c>
@@ -5055,7 +5062,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>47818</v>
       </c>
@@ -5073,7 +5080,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>47849</v>
       </c>
@@ -5091,7 +5098,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>47880</v>
       </c>
@@ -5109,7 +5116,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>47908</v>
       </c>
@@ -5127,7 +5134,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>47939</v>
       </c>
@@ -5145,7 +5152,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>47969</v>
       </c>
@@ -5163,7 +5170,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>48000</v>
       </c>
@@ -5181,7 +5188,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5197,7 +5204,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5213,7 +5220,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5229,7 +5236,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5245,7 +5252,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5261,7 +5268,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5277,7 +5284,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5293,7 +5300,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5309,7 +5316,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5325,7 +5332,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5341,7 +5348,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5357,7 +5364,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -5373,7 +5380,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5404,10 +5411,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5430,7 +5437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5438,21 +5445,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5465,7 +5472,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5514,17 +5521,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5545,7 +5552,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5572,7 +5579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5598,7 +5605,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5676,7 +5683,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5728,7 +5735,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5754,7 +5761,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5856,7 +5863,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5877,7 +5884,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5961,7 +5968,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6243,7 +6250,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6252,7 +6259,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6261,7 +6268,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6270,7 +6277,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6279,7 +6286,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6288,7 +6295,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6297,7 +6304,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6306,7 +6313,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6315,7 +6322,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6324,7 +6331,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6333,7 +6340,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6342,7 +6349,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6351,7 +6358,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6360,7 +6367,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6369,7 +6376,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6378,7 +6385,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6387,7 +6394,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6396,7 +6403,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6405,7 +6412,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6414,7 +6421,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6423,7 +6430,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6432,7 +6439,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6441,7 +6448,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6450,7 +6457,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6459,7 +6466,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6468,7 +6475,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6477,7 +6484,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6486,7 +6493,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6495,7 +6502,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0EAF25-4B2D-4DC4-97F9-344FA5CE1617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7FD69-7E05-4247-A79D-A2492D00B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>1/24,25/2023</t>
+  </si>
+  <si>
+    <t>3/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2594,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -2969,12 +2972,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,7 +3150,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3407,10 +3410,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -3419,14 +3422,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="48" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -3444,7 +3451,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3462,7 +3469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3480,7 +3487,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3498,7 +3505,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3516,7 +3523,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3534,7 +3541,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3552,7 +3559,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3570,7 +3577,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3588,7 +3595,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3606,7 +3613,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3624,7 +3631,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3642,7 +3649,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3660,7 +3667,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3678,7 +3685,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3696,7 +3703,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3714,7 +3721,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3732,7 +3739,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3750,7 +3757,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3768,7 +3775,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3786,7 +3793,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3804,7 +3811,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3822,7 +3829,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3840,7 +3847,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3858,7 +3865,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3876,7 +3883,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3894,7 +3901,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3912,7 +3919,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3930,7 +3937,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3948,7 +3955,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3966,7 +3973,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3984,7 +3991,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4002,7 +4009,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4020,7 +4027,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4038,7 +4045,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4056,7 +4063,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4074,7 +4081,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4092,7 +4099,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4110,7 +4117,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4128,7 +4135,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4146,7 +4153,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4164,7 +4171,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4182,7 +4189,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4200,7 +4207,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4218,7 +4225,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4236,7 +4243,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4254,7 +4261,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4272,7 +4279,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4290,7 +4297,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4308,7 +4315,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4326,7 +4333,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4344,7 +4351,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4362,7 +4369,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4380,7 +4387,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4398,7 +4405,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4416,7 +4423,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4434,7 +4441,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4452,7 +4459,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4470,7 +4477,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4488,7 +4495,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4506,7 +4513,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4524,7 +4531,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4542,7 +4549,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4560,7 +4567,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4578,7 +4585,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4596,7 +4603,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4614,7 +4621,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4632,7 +4639,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4650,7 +4657,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4668,7 +4675,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4686,7 +4693,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4704,7 +4711,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4722,7 +4729,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4740,7 +4747,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4758,7 +4765,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4776,7 +4783,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4794,7 +4801,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4812,7 +4819,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4830,7 +4837,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4848,7 +4855,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4866,7 +4873,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4884,7 +4891,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4902,7 +4909,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4920,7 +4927,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4938,7 +4945,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4956,7 +4963,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4974,7 +4981,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4992,7 +4999,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5010,7 +5017,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5028,7 +5035,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5046,7 +5053,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5064,7 +5071,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5082,7 +5089,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5100,7 +5107,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5118,7 +5125,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5136,7 +5143,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5154,7 +5161,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5172,7 +5179,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5189,7 +5196,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>48000</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5365,36 +5374,52 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
       <c r="D133" s="43"/>
-      <c r="E133" s="49"/>
+      <c r="E133" s="9"/>
       <c r="F133" s="15"/>
       <c r="G133" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H133" s="43"/>
-      <c r="I133" s="49"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="12"/>
       <c r="K133" s="15"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7FD69-7E05-4247-A79D-A2492D00B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1059,7 +1058,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1101,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1165,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1225,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1291,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1354,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1452,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1511,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1576,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1619,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1694,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1880,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1946,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2004,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2070,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2126,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2201,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2244,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2310,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2366,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2464,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2527,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,25 +2593,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2624,13 +2623,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2639,14 +2638,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2950,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2960,7 +2959,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2968,34 +2967,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3016,7 +3015,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3036,7 +3035,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3066,7 +3065,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3079,7 +3078,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3096,7 +3095,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3140,7 +3139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3150,12 +3149,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
@@ -3177,7 +3176,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3197,7 +3196,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3217,7 +3216,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3237,7 +3236,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3257,7 +3256,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3314,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -3363,7 +3362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44958</v>
       </c>
@@ -3383,7 +3382,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44986</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3431,29 +3430,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>45017</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>45047</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -3462,12 +3465,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="48">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -3485,7 +3492,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>45108</v>
       </c>
@@ -3503,7 +3510,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45139</v>
       </c>
@@ -3521,7 +3528,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45170</v>
       </c>
@@ -3539,7 +3546,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45200</v>
       </c>
@@ -3557,7 +3564,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45231</v>
       </c>
@@ -3575,7 +3582,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45261</v>
       </c>
@@ -3593,7 +3600,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45292</v>
       </c>
@@ -3611,7 +3618,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45323</v>
       </c>
@@ -3629,7 +3636,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>45352</v>
       </c>
@@ -3647,7 +3654,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45383</v>
       </c>
@@ -3665,7 +3672,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45413</v>
       </c>
@@ -3683,7 +3690,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45444</v>
       </c>
@@ -3701,7 +3708,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45474</v>
       </c>
@@ -3719,7 +3726,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45505</v>
       </c>
@@ -3737,7 +3744,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45536</v>
       </c>
@@ -3755,7 +3762,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45566</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45597</v>
       </c>
@@ -3791,7 +3798,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45627</v>
       </c>
@@ -3809,7 +3816,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45658</v>
       </c>
@@ -3827,7 +3834,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45689</v>
       </c>
@@ -3845,7 +3852,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45717</v>
       </c>
@@ -3863,7 +3870,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45748</v>
       </c>
@@ -3881,7 +3888,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45778</v>
       </c>
@@ -3899,7 +3906,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45809</v>
       </c>
@@ -3917,7 +3924,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45839</v>
       </c>
@@ -3935,7 +3942,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45870</v>
       </c>
@@ -3953,7 +3960,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45901</v>
       </c>
@@ -3971,7 +3978,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45931</v>
       </c>
@@ -3989,7 +3996,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45962</v>
       </c>
@@ -4007,7 +4014,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45992</v>
       </c>
@@ -4025,7 +4032,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>46023</v>
       </c>
@@ -4043,7 +4050,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>46054</v>
       </c>
@@ -4061,7 +4068,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>46082</v>
       </c>
@@ -4079,7 +4086,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>46113</v>
       </c>
@@ -4097,7 +4104,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>46143</v>
       </c>
@@ -4115,7 +4122,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>46174</v>
       </c>
@@ -4133,7 +4140,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>46204</v>
       </c>
@@ -4151,7 +4158,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>46235</v>
       </c>
@@ -4169,7 +4176,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>46266</v>
       </c>
@@ -4187,7 +4194,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>46296</v>
       </c>
@@ -4205,7 +4212,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>46327</v>
       </c>
@@ -4223,7 +4230,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>46357</v>
       </c>
@@ -4241,7 +4248,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>46388</v>
       </c>
@@ -4259,7 +4266,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>46419</v>
       </c>
@@ -4277,7 +4284,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>46447</v>
       </c>
@@ -4295,7 +4302,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>46478</v>
       </c>
@@ -4313,7 +4320,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>46508</v>
       </c>
@@ -4331,7 +4338,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>46539</v>
       </c>
@@ -4349,7 +4356,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46569</v>
       </c>
@@ -4367,7 +4374,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46600</v>
       </c>
@@ -4385,7 +4392,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46631</v>
       </c>
@@ -4403,7 +4410,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46661</v>
       </c>
@@ -4421,7 +4428,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46692</v>
       </c>
@@ -4439,7 +4446,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46722</v>
       </c>
@@ -4457,7 +4464,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46753</v>
       </c>
@@ -4475,7 +4482,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46784</v>
       </c>
@@ -4493,7 +4500,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46813</v>
       </c>
@@ -4511,7 +4518,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46844</v>
       </c>
@@ -4529,7 +4536,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46874</v>
       </c>
@@ -4547,7 +4554,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46905</v>
       </c>
@@ -4565,7 +4572,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46935</v>
       </c>
@@ -4583,7 +4590,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46966</v>
       </c>
@@ -4601,7 +4608,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46997</v>
       </c>
@@ -4619,7 +4626,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>47027</v>
       </c>
@@ -4637,7 +4644,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>47058</v>
       </c>
@@ -4655,7 +4662,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>47088</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>47119</v>
       </c>
@@ -4691,7 +4698,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>47150</v>
       </c>
@@ -4709,7 +4716,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>47178</v>
       </c>
@@ -4727,7 +4734,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>47209</v>
       </c>
@@ -4745,7 +4752,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>47239</v>
       </c>
@@ -4763,7 +4770,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>47270</v>
       </c>
@@ -4781,7 +4788,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>47300</v>
       </c>
@@ -4799,7 +4806,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>47331</v>
       </c>
@@ -4817,7 +4824,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>47362</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>47392</v>
       </c>
@@ -4853,7 +4860,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>47423</v>
       </c>
@@ -4871,7 +4878,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>47453</v>
       </c>
@@ -4889,7 +4896,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>47484</v>
       </c>
@@ -4907,7 +4914,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>47515</v>
       </c>
@@ -4925,7 +4932,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>47543</v>
       </c>
@@ -4943,7 +4950,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47574</v>
       </c>
@@ -4961,7 +4968,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47604</v>
       </c>
@@ -4979,7 +4986,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>47635</v>
       </c>
@@ -4997,7 +5004,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>47665</v>
       </c>
@@ -5015,7 +5022,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>47696</v>
       </c>
@@ -5033,7 +5040,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47727</v>
       </c>
@@ -5051,7 +5058,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47757</v>
       </c>
@@ -5069,7 +5076,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47788</v>
       </c>
@@ -5087,7 +5094,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47818</v>
       </c>
@@ -5105,7 +5112,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47849</v>
       </c>
@@ -5123,7 +5130,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47880</v>
       </c>
@@ -5141,7 +5148,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47908</v>
       </c>
@@ -5159,7 +5166,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47939</v>
       </c>
@@ -5177,7 +5184,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47969</v>
       </c>
@@ -5195,7 +5202,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>48000</v>
       </c>
@@ -5213,7 +5220,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5229,7 +5236,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5245,7 +5252,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5261,7 +5268,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5277,7 +5284,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5293,7 +5300,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5309,7 +5316,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5325,7 +5332,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5341,7 +5348,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5357,7 +5364,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5373,7 +5380,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5389,7 +5396,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5405,7 +5412,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5436,10 +5443,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5462,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5470,21 +5477,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5497,7 +5504,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5526,7 +5533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5546,17 +5553,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5577,7 +5584,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5656,7 +5663,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5682,7 +5689,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5734,7 +5741,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5760,7 +5767,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5786,7 +5793,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5806,7 +5813,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5846,7 +5853,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5888,7 +5895,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5930,7 +5937,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5993,7 +6000,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6014,7 +6021,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6056,7 +6063,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6077,7 +6084,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6098,7 +6105,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6161,7 +6168,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6182,7 +6189,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6203,7 +6210,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6224,7 +6231,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6245,7 +6252,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6275,7 +6282,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6284,7 +6291,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6293,7 +6300,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6302,7 +6309,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6311,7 +6318,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6320,7 +6327,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6329,7 +6336,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6338,7 +6345,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6347,7 +6354,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6356,7 +6363,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6365,7 +6372,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6374,7 +6381,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6383,7 +6390,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6392,7 +6399,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6401,7 +6408,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6410,7 +6417,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6419,7 +6426,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6428,7 +6435,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6437,7 +6444,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6446,7 +6453,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6455,7 +6462,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6464,7 +6471,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6473,7 +6480,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6482,7 +6489,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6491,7 +6498,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6500,7 +6507,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6509,7 +6516,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6518,7 +6525,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6527,7 +6534,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>3/2,3/2023</t>
+  </si>
+  <si>
+    <t>SPL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1168,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1228,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1294,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1357,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1455,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1514,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1579,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1622,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1697,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1883,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1949,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2007,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2073,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2129,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2204,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2247,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2313,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2467,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2530,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3149,7 +3152,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3457,13 +3460,15 @@
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39">
         <v>1</v>
@@ -3478,7 +3483,9 @@
       <c r="A25" s="40">
         <v>45078</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -3490,7 +3497,9 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="48">
+        <v>45082</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,7 +189,7 @@
     <t>3/2,3/2023</t>
   </si>
   <si>
-    <t>SPL(1-0-0)</t>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1168,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1228,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1294,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1622,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1697,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2073,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2129,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2204,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2247,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2313,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2530,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2979,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3152,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3486,13 +3486,15 @@
       <c r="B25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3505,7 +3507,9 @@
       <c r="A26" s="40">
         <v>45108</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -3517,7 +3521,9 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="48">
+        <v>45118</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2974,12 +2974,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3152,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3510,13 +3510,15 @@
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3526,10 +3528,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B27" s="20"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -3538,16 +3540,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="48">
+        <v>45128</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B28" s="20"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -3556,14 +3562,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="48">
+        <v>45138</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3581,7 +3591,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3599,7 +3609,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3617,7 +3627,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3635,7 +3645,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3653,7 +3663,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3671,7 +3681,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3689,7 +3699,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3707,7 +3717,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3725,7 +3735,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3743,7 +3753,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3761,7 +3771,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3779,7 +3789,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3797,7 +3807,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3815,7 +3825,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3833,7 +3843,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3851,7 +3861,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3869,7 +3879,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3887,7 +3897,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3905,7 +3915,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3923,7 +3933,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3941,7 +3951,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3959,7 +3969,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3977,7 +3987,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3995,7 +4005,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4013,7 +4023,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4031,7 +4041,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4049,7 +4059,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4067,7 +4077,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4085,7 +4095,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4103,7 +4113,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4121,7 +4131,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4139,7 +4149,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4157,7 +4167,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4175,7 +4185,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4193,7 +4203,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4211,7 +4221,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4229,7 +4239,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4247,7 +4257,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4265,7 +4275,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4283,7 +4293,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4301,7 +4311,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4319,7 +4329,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4337,7 +4347,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4355,7 +4365,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4373,7 +4383,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4391,7 +4401,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4409,7 +4419,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4427,7 +4437,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4445,7 +4455,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4463,7 +4473,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4481,7 +4491,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4499,7 +4509,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4517,7 +4527,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4535,7 +4545,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4553,7 +4563,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4571,7 +4581,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4589,7 +4599,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4607,7 +4617,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4625,7 +4635,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4643,7 +4653,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4661,7 +4671,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4679,7 +4689,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4697,7 +4707,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4715,7 +4725,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4733,7 +4743,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4751,7 +4761,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4769,7 +4779,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4787,7 +4797,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4805,7 +4815,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4823,7 +4833,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4841,7 +4851,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4859,7 +4869,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4877,7 +4887,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4895,7 +4905,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4913,7 +4923,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4931,7 +4941,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4949,7 +4959,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4967,7 +4977,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4985,7 +4995,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5003,7 +5013,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5021,7 +5031,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5039,7 +5049,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5057,7 +5067,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5075,7 +5085,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5093,7 +5103,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5111,7 +5121,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5129,7 +5139,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5147,7 +5157,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5165,7 +5175,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5183,7 +5193,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5201,7 +5211,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5219,7 +5229,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5236,7 +5246,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>47969</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5252,7 +5264,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>48000</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5412,36 +5426,68 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2596,7 +2599,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2974,12 +2977,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3145,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.25</v>
+        <v>17.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3155,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3576,13 +3579,15 @@
         <v>45139</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -3593,25 +3598,33 @@
       <c r="A30" s="40">
         <v>45170</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="48">
+        <v>45170</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B31" s="20"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -3620,14 +3633,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="48">
+        <v>45195</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3645,7 +3662,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3663,7 +3680,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3681,7 +3698,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3699,7 +3716,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3717,7 +3734,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3735,7 +3752,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3753,7 +3770,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3771,7 +3788,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3789,7 +3806,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3807,7 +3824,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3825,7 +3842,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3843,7 +3860,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3861,7 +3878,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3879,7 +3896,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3897,7 +3914,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3915,7 +3932,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3933,7 +3950,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3951,7 +3968,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3969,7 +3986,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3987,7 +4004,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4005,7 +4022,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4023,7 +4040,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4041,7 +4058,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4059,7 +4076,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4077,7 +4094,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4095,7 +4112,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4113,7 +4130,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4131,7 +4148,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4149,7 +4166,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4167,7 +4184,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4185,7 +4202,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4203,7 +4220,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4221,7 +4238,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4239,7 +4256,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4257,7 +4274,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4275,7 +4292,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4293,7 +4310,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4311,7 +4328,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4329,7 +4346,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4347,7 +4364,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4365,7 +4382,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4383,7 +4400,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4401,7 +4418,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4419,7 +4436,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4437,7 +4454,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4455,7 +4472,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4473,7 +4490,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4491,7 +4508,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4509,7 +4526,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4527,7 +4544,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4545,7 +4562,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4563,7 +4580,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4581,7 +4598,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4599,7 +4616,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4617,7 +4634,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4635,7 +4652,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4653,7 +4670,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4671,7 +4688,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4689,7 +4706,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4707,7 +4724,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4725,7 +4742,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4743,7 +4760,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4761,7 +4778,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4779,7 +4796,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4797,7 +4814,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4815,7 +4832,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4833,7 +4850,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4851,7 +4868,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4869,7 +4886,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4887,7 +4904,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4905,7 +4922,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4923,7 +4940,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4941,7 +4958,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4959,7 +4976,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4977,7 +4994,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4995,7 +5012,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5013,7 +5030,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5031,7 +5048,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5049,7 +5066,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5067,7 +5084,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5085,7 +5102,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5103,7 +5120,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5121,7 +5138,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5139,7 +5156,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5157,7 +5174,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5175,7 +5192,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5193,7 +5210,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5211,7 +5228,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5229,7 +5246,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5247,7 +5264,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5265,7 +5282,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5282,7 +5299,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>48000</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5458,36 +5477,52 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
       <c r="D136" s="43"/>
-      <c r="E136" s="49"/>
+      <c r="E136" s="9"/>
       <c r="F136" s="15"/>
       <c r="G136" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H136" s="43"/>
-      <c r="I136" s="49"/>
+      <c r="I136" s="9"/>
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1073,7 +1073,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1116,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1180,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1240,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1634,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1709,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1895,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1961,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2085,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2141,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2381,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2479,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3154,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.25</v>
+        <v>21.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3164,7 +3164,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3754,13 +3754,15 @@
       <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="39">
         <v>1</v>
@@ -3793,7 +3795,9 @@
       <c r="A38" s="40">
         <v>45292</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
@@ -3802,10 +3806,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="48">
+        <v>45303</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">

--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD3613-51D2-40E1-9415-C3B6D7FD4A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -203,11 +204,14 @@
   <si>
     <t>2024</t>
   </si>
+  <si>
+    <t>1/25,26/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1073,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1120,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1184,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1244,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1310,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1373,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1471,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1530,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1595,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1638,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1713,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1899,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1965,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2023,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2089,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2145,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2220,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2263,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2329,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2385,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2483,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2546,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2595,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2608,25 +2612,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2638,13 +2642,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2653,14 +2657,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2964,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2974,7 +2978,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2982,34 +2986,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3030,7 +3034,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3076,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3080,7 +3084,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3093,7 +3097,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3110,7 +3114,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3154,7 +3158,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.5</v>
+        <v>22.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3164,12 +3168,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
@@ -3191,7 +3195,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3231,7 +3235,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3251,7 +3255,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>46</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -3377,7 +3381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44958</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44986</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3445,7 +3449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>45017</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>45047</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>45108</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -3561,7 +3565,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>47</v>
@@ -3583,7 +3587,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45139</v>
       </c>
@@ -3603,7 +3607,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>45170</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -3651,7 +3655,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45200</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>53</v>
@@ -3699,7 +3703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>45231</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -3747,7 +3751,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45261</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>55</v>
       </c>
@@ -3791,20 +3795,22 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>45292</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39">
         <v>1</v>
@@ -3815,11 +3821,11 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B39" s="20"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
@@ -3828,16 +3834,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>2</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B40" s="20"/>
+      <c r="K39" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
@@ -3849,11 +3859,13 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="48">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3869,9 +3881,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3887,9 +3899,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3905,9 +3917,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3923,9 +3935,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3941,9 +3953,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3959,9 +3971,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3977,9 +3989,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3995,9 +4007,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4013,9 +4025,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4031,9 +4043,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4049,9 +4061,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4067,9 +4079,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4085,9 +4097,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4103,9 +4115,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4121,9 +4133,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4139,9 +4151,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4157,9 +4169,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4175,9 +4187,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4193,9 +4205,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4211,9 +4223,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4229,9 +4241,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4247,9 +4259,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4265,9 +4277,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4283,9 +4295,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4301,9 +4313,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4319,9 +4331,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4337,9 +4349,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4355,9 +4367,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4373,9 +4385,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4391,9 +4403,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4409,9 +4421,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4427,9 +4439,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4445,9 +4457,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4463,9 +4475,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4481,9 +4493,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4499,9 +4511,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4517,9 +4529,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4535,9 +4547,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4553,9 +4565,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4571,9 +4583,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4589,9 +4601,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4607,9 +4619,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4625,9 +4637,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4643,9 +4655,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4661,9 +4673,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4679,9 +4691,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4697,9 +4709,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4715,9 +4727,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4733,9 +4745,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4751,9 +4763,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4769,9 +4781,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4787,9 +4799,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4805,9 +4817,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4823,9 +4835,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4841,9 +4853,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4859,9 +4871,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4877,9 +4889,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4895,9 +4907,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4913,9 +4925,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4931,9 +4943,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4949,9 +4961,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4967,9 +4979,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4985,9 +4997,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5003,9 +5015,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5021,9 +5033,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5039,9 +5051,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5057,9 +5069,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5075,9 +5087,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5093,9 +5105,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5111,9 +5123,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5129,9 +5141,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5147,9 +5159,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5165,9 +5177,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5183,9 +5195,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5201,9 +5213,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5219,9 +5231,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5237,9 +5249,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5255,9 +5267,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5273,9 +5285,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5291,9 +5303,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5309,9 +5321,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5327,9 +5339,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5345,9 +5357,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5363,9 +5375,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5381,9 +5393,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5399,9 +5411,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5417,8 +5429,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>47969</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5433,8 +5447,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
+        <v>48000</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5449,7 +5465,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5465,7 +5481,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5481,7 +5497,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5497,7 +5513,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5513,7 +5529,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5529,7 +5545,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5545,7 +5561,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5561,7 +5577,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5577,7 +5593,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5593,37 +5609,69 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
-      <c r="I140" s="49"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="41"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="43"/>
+      <c r="I142" s="49"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5640,10 +5688,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5666,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5674,21 +5722,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5701,7 +5749,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5730,7 +5778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5750,17 +5798,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5781,7 +5829,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5808,7 +5856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5834,7 +5882,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5860,7 +5908,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5886,7 +5934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5912,7 +5960,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5938,7 +5986,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5964,7 +6012,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5990,7 +6038,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6010,7 +6058,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6030,7 +6078,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6050,7 +6098,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6071,7 +6119,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6092,7 +6140,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6113,7 +6161,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6134,7 +6182,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6155,7 +6203,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6176,7 +6224,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6197,7 +6245,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6218,7 +6266,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6239,7 +6287,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6260,7 +6308,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6281,7 +6329,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6302,7 +6350,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6323,7 +6371,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6344,7 +6392,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6365,7 +6413,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6386,7 +6434,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6407,7 +6455,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6428,7 +6476,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6449,7 +6497,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6470,7 +6518,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6479,7 +6527,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6488,7 +6536,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6497,7 +6545,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6506,7 +6554,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6515,7 +6563,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6524,7 +6572,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6533,7 +6581,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6542,7 +6590,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6551,7 +6599,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6560,7 +6608,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6569,7 +6617,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6578,7 +6626,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6587,7 +6635,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6596,7 +6644,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6605,7 +6653,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6614,7 +6662,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6623,7 +6671,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6632,7 +6680,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6641,7 +6689,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6650,7 +6698,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6659,7 +6707,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6668,7 +6716,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6677,7 +6725,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6686,7 +6734,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6695,7 +6743,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6704,7 +6752,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6713,7 +6761,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6722,7 +6770,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6731,7 +6779,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
